--- a/output/fit_clients/fit_round_15.xlsx
+++ b/output/fit_clients/fit_round_15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>9741561907.270058</v>
+        <v>12658164930.46046</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1277218439757032</v>
+        <v>0.09870696399233514</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08025266308395243</v>
+        <v>0.07147639987863952</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8467240518270759</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.79429006748449</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7334021951098212</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.873753834711933</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>5750212058.708236</v>
+        <v>3345030852.536067</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2528187543620056</v>
+        <v>0.4706244753486997</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4931900183466537</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>4.753061297665826</v>
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.962513705547432</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4883049554000557</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.8207084577218</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.9660376948501086</v>
+      </c>
+      <c r="N3" t="n">
+        <v>13.50004543928037</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>5440633252.635139</v>
+        <v>9260087311.663597</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2729818499125363</v>
+        <v>0.141434411568708</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5597471805086455</v>
+        <v>0.1781490953990074</v>
       </c>
       <c r="I4" t="n">
-        <v>4.85583019058833</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.670159534008916</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7457547246952636</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.244934959896356</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>6002205710.882636</v>
+        <v>10161418385.23934</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2417681315668547</v>
+        <v>0.105946753611075</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4567125790802161</v>
+        <v>0.08955114848726953</v>
       </c>
       <c r="I5" t="n">
-        <v>4.744497223255617</v>
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01687229370702229</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.349275796028767</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6439858139797194</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.530440483565622</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>5636079896.089154</v>
+        <v>6163787487.108921</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2170400619850706</v>
+        <v>0.2184316806534651</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3750867130030945</v>
+        <v>0.3703793058813198</v>
       </c>
       <c r="I6" t="n">
-        <v>3.999422749567461</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.746268169316973</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7530458972420336</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.3146497755237</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>8409375254.129599</v>
+        <v>10372480875.99081</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1398565380255149</v>
+        <v>0.154549976921203</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1203085561701811</v>
+        <v>0.2108932163045079</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6009182438919975</v>
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.973339306563717</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3932333978352053</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.747122625607941</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.9541011038830649</v>
+      </c>
+      <c r="N7" t="n">
+        <v>14.33489945205336</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>8591255599.00428</v>
+        <v>6586229861.207129</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1780559014187977</v>
+        <v>0.1829452395970829</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2464023505223416</v>
+        <v>0.2817843970667295</v>
       </c>
       <c r="I8" t="n">
-        <v>5.001419455561877</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.650493157856729</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7239500019355899</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.828506880855069</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>6775301732.21944</v>
+        <v>5707932657.933627</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1716542238214125</v>
+        <v>0.2335818570225857</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2252707989264985</v>
+        <v>0.4082030056942882</v>
       </c>
       <c r="I9" t="n">
-        <v>3.80244903813266</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7.955708379170873</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7504608580601785</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.053508782032696</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>10484667434.04961</v>
+        <v>5649710724.182424</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1381562819337342</v>
+        <v>0.2420162105198522</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1146961133717053</v>
+        <v>0.4292600843067392</v>
       </c>
       <c r="I10" t="n">
-        <v>4.735933148845408</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7.629447320600697</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7571393972887969</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.513340625175241</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>6418645499.667752</v>
+        <v>12560916129.51447</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1677253074742524</v>
+        <v>0.120741735265342</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2123016830591704</v>
+        <v>0.1264880745794278</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6706960926887736</v>
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2165085472735689</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.570397775046304</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.7055946228753982</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9.541494682461659</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>8256317190.021133</v>
+        <v>12420701007.87142</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.153553301165838</v>
+        <v>0.1024920847215662</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.165520745099221</v>
+        <v>0.08092627470056467</v>
       </c>
       <c r="I12" t="n">
-        <v>4.145012014541008</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7.701921156484655</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7382933166680514</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7.063945176876373</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>7573689491.755863</v>
+        <v>3861196049.446192</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.16358889169521</v>
+        <v>0.3710783683738375</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1986476240836924</v>
+        <v>0.7514747039221834</v>
       </c>
       <c r="I13" t="n">
-        <v>0.803042293938113</v>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1720753763549043</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7.713232729384107</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.7696097124578146</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7.678961519772185</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>6651367816.720173</v>
+        <v>14395592574.60527</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2083266702702476</v>
+        <v>0.1119040318522054</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3463243325496049</v>
+        <v>0.1044239987039911</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5303953630004</v>
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3751925705073544</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.225482135324696</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.4651057903380576</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6.076633671436457</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>9531787823.440554</v>
+        <v>10843063663.58908</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1541660197666447</v>
+        <v>0.09058982594545292</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1675432922409217</v>
+        <v>0.05121127653317981</v>
       </c>
       <c r="I15" t="n">
-        <v>4.804445744127078</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.438247612235929</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6158767280489712</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.879286948743496</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>8196367413.096184</v>
+        <v>4109786148.927767</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1907888886851746</v>
+        <v>0.3244133542928618</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2884331734270377</v>
+        <v>0.6349715397765624</v>
       </c>
       <c r="I16" t="n">
-        <v>5.112752422894591</v>
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.9648102797354806</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5200733367501627</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.290652013264764</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8592497527417001</v>
+      </c>
+      <c r="N16" t="n">
+        <v>12.89434304156924</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>7943581210.874469</v>
+        <v>9987310998.960644</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.14607892072803</v>
+        <v>0.1437249445971374</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1408482661332365</v>
+        <v>0.1838676053072873</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6403267229118061</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7.951194071430605</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7700988006055393</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.45078194068018</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>10940373033.34857</v>
+        <v>4469399842.971967</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1115716745927442</v>
+        <v>0.2455641581779337</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02694192813894312</v>
+        <v>0.4381178364478245</v>
       </c>
       <c r="I18" t="n">
-        <v>3.990858675157252</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7.701955342779011</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.6998847250354316</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.295739157929622</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>6991872421.21586</v>
+        <v>13897894602.77993</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1880660430831113</v>
+        <v>0.09423693569657868</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2794452243383464</v>
+        <v>0.06031659524700662</v>
       </c>
       <c r="I19" t="n">
-        <v>4.299165353924765</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8.042394987948878</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7457547246952636</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.872699505956394</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>4192888259.987617</v>
+        <v>11077844518.54346</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3654624342420528</v>
+        <v>0.1335959669340609</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8650200108947209</v>
+        <v>0.158579753786209</v>
       </c>
       <c r="I20" t="n">
-        <v>5.009983529972087</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8.287049718586463</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7783046457223832</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7.279043195861203</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>9549929645.191511</v>
+        <v>14091726169.82698</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.148113195861312</v>
+        <v>0.07007729344858002</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1475632856394747</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>4.624600181512696</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.975824669079559</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.5457188140422004</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-13.89020094992357</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>10924857611.43772</v>
+        <v>5624960185.616094</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1313907943749481</v>
+        <v>0.2812662681676766</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09236364703851777</v>
+        <v>0.5272511810400368</v>
       </c>
       <c r="I22" t="n">
-        <v>4.693112776794365</v>
+        <v>8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9737333446572423</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3507091729428534</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.016910924103726</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8162870905830503</v>
+      </c>
+      <c r="N22" t="n">
+        <v>13.30883088755728</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>9581857413.436357</v>
+        <v>9812306367.627531</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1306707422137446</v>
+        <v>0.143618815719951</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.08998679828837382</v>
+        <v>0.1836026455672561</v>
       </c>
       <c r="I23" t="n">
-        <v>4.093627568079756</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8.013062703197297</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7651749167325047</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7.290435631452796</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>7783082982.525534</v>
+        <v>9997817263.74227</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1766883063032392</v>
+        <v>0.1490758303219995</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2418880015400605</v>
+        <v>0.1972265451941652</v>
       </c>
       <c r="I24" t="n">
-        <v>4.496139065359565</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2958346413341096</v>
+      </c>
+      <c r="L24" t="n">
+        <v>7.836991994363313</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.7802063674421696</v>
+      </c>
+      <c r="N24" t="n">
+        <v>7.767135354480081</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>4823966414.28349</v>
+        <v>9110527519.543928</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2742125123598059</v>
+        <v>0.1417436330914728</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5638095230127674</v>
+        <v>0.1789210931479314</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7685911924409848</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>7.873988978633097</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7420459031283224</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.966929083933351</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>10255588882.23596</v>
+        <v>12969983424.10424</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1067617893592167</v>
+        <v>0.1193570908597298</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0110647871183008</v>
+        <v>0.1230311924237634</v>
       </c>
       <c r="I26" t="n">
-        <v>3.579783103467234</v>
+        <v>6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3709772694668838</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.449641866960046</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5337772069788955</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7.225902272617864</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>4335366927.988261</v>
+        <v>8584368447.726732</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3377428103137398</v>
+        <v>0.1791141584104739</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7735192043721033</v>
+        <v>0.2722197780662037</v>
       </c>
       <c r="I27" t="n">
-        <v>4.787317595306661</v>
+        <v>7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9679665828725285</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3302913468181577</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.180580911635499</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8310762540277921</v>
+      </c>
+      <c r="N27" t="n">
+        <v>13.44094416892034</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>7860585930.197764</v>
+        <v>9665612249.393085</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.146621589056403</v>
+        <v>0.1566385430053917</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1426395815511089</v>
+        <v>0.2161074986127267</v>
       </c>
       <c r="I28" t="n">
-        <v>3.768192740491826</v>
+        <v>5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.972723387480339</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.4109834563124668</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.783491550391602</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8837849144892911</v>
+      </c>
+      <c r="N28" t="n">
+        <v>13.89220673939422</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>4092212503.553345</v>
+        <v>11309925723.4884</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3334876155172791</v>
+        <v>0.1431294121267409</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.7594730630249507</v>
+        <v>0.1823808080027315</v>
       </c>
       <c r="I29" t="n">
-        <v>4.46188276771873</v>
+        <v>7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9746853467060504</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3117354720922206</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.162025036909562</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8579944176223594</v>
+      </c>
+      <c r="N29" t="n">
+        <v>13.99786331553763</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>8316514308.290448</v>
+        <v>4008665311.435001</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1851979402554056</v>
+        <v>0.3116870411794815</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2699777899098141</v>
+        <v>0.6031992200887564</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7930579513198924</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>7.630074202161332</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7334021951098212</v>
+      </c>
+      <c r="N30" t="n">
+        <v>7.037969700035092</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>5549470636.747178</v>
+        <v>9425886174.49044</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2652680366037344</v>
+        <v>0.1042099630545455</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.534284348078248</v>
+        <v>0.08521510360913433</v>
       </c>
       <c r="I31" t="n">
-        <v>4.813009818537286</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.036579374592939</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.4412772563179828</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4.788965751766718</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>6759760304.312548</v>
+        <v>12726440235.23097</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1735988655176644</v>
+        <v>0.08171160283464195</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.231689943863844</v>
+        <v>0.02904603979703708</v>
       </c>
       <c r="I32" t="n">
-        <v>3.836705335773495</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.813161353645288</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.5995883090153276</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-14.80492753395184</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>5813661241.315232</v>
+        <v>10584710715.63183</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1887836880140793</v>
+        <v>0.1284365200451158</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2818141269666886</v>
+        <v>0.1456987571843365</v>
       </c>
       <c r="I33" t="n">
-        <v>3.588347177877443</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>7.739250285517559</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7556103949831509</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7.372957614145458</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>7296906470.21349</v>
+        <v>9929000537.534967</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1927683239112212</v>
+        <v>0.1118563097868186</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2949671697074689</v>
+        <v>0.1043048565216385</v>
       </c>
       <c r="I34" t="n">
-        <v>4.598907958282069</v>
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3228009004294777</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.40146549792264</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.3287491276472429</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-9.976448050867498</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>5745831362.848105</v>
+        <v>7271986419.768044</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2160855029662001</v>
+        <v>0.2200839217258948</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.3719357712613897</v>
+        <v>0.3745042658038731</v>
       </c>
       <c r="I35" t="n">
-        <v>0.7611683863387454</v>
+        <v>4</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9724714770468518</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.3429974769131817</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4.113576153427783</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.9302015686277179</v>
+      </c>
+      <c r="N35" t="n">
+        <v>14.49045521912657</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>4063240928.644238</v>
+        <v>5163963380.341282</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3803466560659152</v>
+        <v>0.2348540221289967</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9141519293098865</v>
+        <v>0.4113790737429413</v>
       </c>
       <c r="I36" t="n">
-        <v>5.05280390202313</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>7.685900323108497</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7256389899866046</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.826879476623596</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>5560251112.082261</v>
+        <v>12989446837.68901</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.21623124311552</v>
+        <v>0.07622568015191607</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3724168507031593</v>
+        <v>0.01534996869574583</v>
       </c>
       <c r="I37" t="n">
-        <v>3.930910154285791</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.340626206069274</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.4409496957606714</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-12.1596201212827</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>6456298466.296877</v>
+        <v>4369625288.561512</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1659357161990809</v>
+        <v>0.2883374446999253</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.2063943502090745</v>
+        <v>0.5449049727823838</v>
       </c>
       <c r="I38" t="n">
-        <v>3.502706433775356</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>7.726420602299731</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7355853985929131</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.985287369558529</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>5028434086.062211</v>
+        <v>6314901309.244572</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2318074633275762</v>
+        <v>0.2376775814061849</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4238330140559848</v>
+        <v>0.4184283288738693</v>
       </c>
       <c r="I39" t="n">
-        <v>0.6994159854179984</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>8.420762933717818</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.7820973343879879</v>
+      </c>
+      <c r="N39" t="n">
+        <v>7.22118375404194</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>8752202095.78422</v>
+        <v>11277036251.56884</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1592188416982775</v>
+        <v>0.1233387974439207</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1842223526479184</v>
+        <v>0.1329718605001243</v>
       </c>
       <c r="I40" t="n">
-        <v>4.556087586231025</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>7.942115230038393</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.761683701489277</v>
+      </c>
+      <c r="N40" t="n">
+        <v>7.291558799747147</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>10173950047.63352</v>
+        <v>9125453163.533016</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1258981717035199</v>
+        <v>0.1285948981349735</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0742328309185072</v>
+        <v>0.14609416151375</v>
       </c>
       <c r="I41" t="n">
-        <v>4.187832386592052</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>7.791745470852821</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7171003503476132</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.550261536099444</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>8383078576.861347</v>
+        <v>5692689440.1129</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1452946359541377</v>
+        <v>0.1987771319521618</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1382593894031572</v>
+        <v>0.3213100586379218</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7381679308300655</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>7.743127547329946</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7077230427311233</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6.411333307292519</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>9928023230.614502</v>
+        <v>4750664571.935683</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1284891161481542</v>
+        <v>0.2084191390503848</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.08278538224288443</v>
+        <v>0.3453821468560517</v>
       </c>
       <c r="I43" t="n">
-        <v>4.170704237771634</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.481505087463462</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.5480894217298987</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6.480283347134512</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>8364113226.102843</v>
+        <v>4809542309.092392</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1800727954398786</v>
+        <v>0.3207832701842154</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.2530599960256432</v>
+        <v>0.6259087270227041</v>
       </c>
       <c r="I44" t="n">
-        <v>4.92434278587</v>
+        <v>6</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9727600540749851</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.3341756744395553</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.412840271932718</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.8642015519276006</v>
+      </c>
+      <c r="N44" t="n">
+        <v>13.87119076661929</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>10461056318.52202</v>
+        <v>4964439277.1858</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1497358557592879</v>
+        <v>0.1983890999585973</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1529195880828511</v>
+        <v>0.3203413038667016</v>
       </c>
       <c r="I45" t="n">
-        <v>5.121316497304799</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.004674880068698</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.4430608665712321</v>
+      </c>
+      <c r="N45" t="n">
+        <v>4.856542451355942</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>6541613969.367651</v>
+        <v>6920502069.933393</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1641720078605944</v>
+        <v>0.2248272804887659</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2005724553717009</v>
+        <v>0.3863464631209771</v>
       </c>
       <c r="I46" t="n">
-        <v>3.511270508185565</v>
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.9657791073498387</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.4293472390868265</v>
+      </c>
+      <c r="L46" t="n">
+        <v>5.761750741408571</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.9632650485980722</v>
+      </c>
+      <c r="N46" t="n">
+        <v>13.50355023055287</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>6388426067.94094</v>
+        <v>9512622976.576805</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1947600608925921</v>
+        <v>0.1153755817614621</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3015417733401758</v>
+        <v>0.1130910173877534</v>
       </c>
       <c r="I47" t="n">
-        <v>4.06793534484913</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>7.789461774600864</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.6998847250354316</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6.208232726107769</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>6636903891.058759</v>
+        <v>8524124941.711554</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.230882226886602</v>
+        <v>0.1791508665631283</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.4207788643751597</v>
+        <v>0.2723114230816053</v>
       </c>
       <c r="I48" t="n">
-        <v>5.009983529972087</v>
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.9638503984672024</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.1745170413009924</v>
+      </c>
+      <c r="L48" t="n">
+        <v>5.506920543622737</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.9563963008973774</v>
+      </c>
+      <c r="N48" t="n">
+        <v>13.62100547432481</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>10559262309.38904</v>
+        <v>12379837462.17033</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1091488748200901</v>
+        <v>0.09119320778239688</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.01894441223418259</v>
+        <v>0.0527176704468297</v>
       </c>
       <c r="I49" t="n">
-        <v>3.768192740491826</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>7.88036876179234</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7071272628545705</v>
+      </c>
+      <c r="N49" t="n">
+        <v>6.26217649529907</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>7840168409.37936</v>
+        <v>9594693446.765188</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1767382073505346</v>
+        <v>0.1422351008473443</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2420527218871206</v>
+        <v>0.1801480840695505</v>
       </c>
       <c r="I50" t="n">
-        <v>4.5303953630004</v>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.06182389313638753</v>
+      </c>
+      <c r="L50" t="n">
+        <v>7.602981246165591</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.7566305306767005</v>
+      </c>
+      <c r="N50" t="n">
+        <v>7.529629367368418</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>10467779400.91428</v>
+        <v>9301711284.234329</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.119361421572456</v>
+        <v>0.1447439528984291</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.05265541303664853</v>
+        <v>0.1864116459280643</v>
       </c>
       <c r="I51" t="n">
-        <v>4.085063493669548</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>7.648169583959499</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7530458972420336</v>
+      </c>
+      <c r="N51" t="n">
+        <v>7.412748360881174</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>8444829550.73251</v>
+        <v>12392446295.11633</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1659445749119287</v>
+        <v>0.09046631256669703</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.206423592285822</v>
+        <v>0.05090291491103589</v>
       </c>
       <c r="I52" t="n">
-        <v>4.581779809461652</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5.865526790623274</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.6563187686057121</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.260848581490969</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>6803329591.14968</v>
+        <v>4445568609.796702</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1751822301172089</v>
+        <v>0.3111048420110306</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2369165348974152</v>
+        <v>0.6017457105029717</v>
       </c>
       <c r="I53" t="n">
-        <v>3.896653856644956</v>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.07673591479621576</v>
+      </c>
+      <c r="L53" t="n">
+        <v>7.617893267825419</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.7601759701325069</v>
+      </c>
+      <c r="N53" t="n">
+        <v>7.58562613482472</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>4641461745.491871</v>
+        <v>9992193380.856874</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3120832938905317</v>
+        <v>0.1593833365005821</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.6888186884568872</v>
+        <v>0.2229601082907415</v>
       </c>
       <c r="I54" t="n">
-        <v>4.735933148845408</v>
+        <v>8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.9815409663565682</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2719246260592891</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.938126377220161</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.8235843364931997</v>
+      </c>
+      <c r="N54" t="n">
+        <v>13.53356035264383</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>6447363731.905788</v>
+        <v>13737225758.76947</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2303568081090701</v>
+        <v>0.09629251009109795</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4190444886841104</v>
+        <v>0.06544851100476583</v>
       </c>
       <c r="I55" t="n">
-        <v>4.85583019058833</v>
+        <v>5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.9700535791621897</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3175935873045467</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.690101681383682</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.8285820882871716</v>
+      </c>
+      <c r="N55" t="n">
+        <v>12.88154008435975</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>10992134499.29835</v>
+        <v>5235764488.45237</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1396418994052502</v>
+        <v>0.2391376508170819</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1196000470318207</v>
+        <v>0.422073515950135</v>
       </c>
       <c r="I56" t="n">
-        <v>5.018547604382295</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>7.811769687161933</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7339494175146491</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.86721866313105</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>10562691947.89425</v>
+        <v>4167363003.576445</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1034097780554657</v>
+        <v>0.2363342572160773</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>0.415074606139546</v>
       </c>
       <c r="I57" t="n">
-        <v>3.571219029057026</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5.576150211817287</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6166986780966244</v>
+      </c>
+      <c r="N57" t="n">
+        <v>6.757823350115201</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>4383855779.460036</v>
+        <v>7231185429.648098</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2599160892424124</v>
+        <v>0.223861362116775</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.5166178926712764</v>
+        <v>0.3839349660099281</v>
       </c>
       <c r="I58" t="n">
-        <v>3.725372368440782</v>
+        <v>6</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.5158109649299203</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3.594475562423082</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.5629125230676486</v>
+      </c>
+      <c r="N58" t="n">
+        <v>7.66377489892989</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>11470832380.07887</v>
+        <v>11641072046.30783</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.118743152621208</v>
+        <v>0.1356827072040125</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.05061454452294187</v>
+        <v>0.1637894777943834</v>
       </c>
       <c r="I59" t="n">
-        <v>4.453318693308521</v>
+        <v>3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4715987203838578</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4.825487948156593</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.7196504818708186</v>
+      </c>
+      <c r="N59" t="n">
+        <v>9.567521689259777</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>3777404011.957529</v>
+        <v>9640424114.772348</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.4063538173679629</v>
+        <v>0.1054230921690108</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0.08824378329852946</v>
       </c>
       <c r="I60" t="n">
-        <v>5.018547604382295</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>7.582551104824038</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.6803175996035635</v>
+      </c>
+      <c r="N60" t="n">
+        <v>6.023800887247234</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>9950716746.957724</v>
+        <v>4850631873.275181</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.106347470932035</v>
+        <v>0.2068238522752737</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.009697146982116042</v>
+        <v>0.3413993781656232</v>
       </c>
       <c r="I61" t="n">
-        <v>3.459886061724313</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>7.620898685231306</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.6770359256294123</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.91981982735694</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>10677633328.45952</v>
+        <v>6876165287.352624</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1410564685702028</v>
+        <v>0.2217056915144252</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1242694545176483</v>
+        <v>0.3785531515826647</v>
       </c>
       <c r="I62" t="n">
-        <v>4.92434278587</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>8.253886127906055</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.7863134417492131</v>
+      </c>
+      <c r="N62" t="n">
+        <v>7.472382707078207</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>11382574307.22019</v>
+        <v>10769125706.41969</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1290988971684447</v>
+        <v>0.1449659408348594</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.08479823260849743</v>
+        <v>0.186965857632606</v>
       </c>
       <c r="I63" t="n">
-        <v>4.804445744127078</v>
+        <v>2</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.4526807401189634</v>
+      </c>
+      <c r="L63" t="n">
+        <v>5.785084242440708</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.75648701977302</v>
+      </c>
+      <c r="N63" t="n">
+        <v>9.344656153019692</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>7154266004.13263</v>
+        <v>14554957052.29209</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1911197569688033</v>
+        <v>0.08566357396455879</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.2895253496731181</v>
+        <v>0.03891247079068292</v>
       </c>
       <c r="I64" t="n">
-        <v>4.470446842128939</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>7.925918298565795</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.732854018329283</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.731162068019865</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>6496049496.086348</v>
+        <v>11928576659.12554</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1858881756870082</v>
+        <v>0.08410277258288959</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.2722562154341091</v>
+        <v>0.03501579780882582</v>
       </c>
       <c r="I65" t="n">
-        <v>3.948038303106209</v>
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0515238373986573</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.405413065171393</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.5534316832198477</v>
+      </c>
+      <c r="N65" t="n">
+        <v>6.663220599225561</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>5688582535.087993</v>
+        <v>12639572213.77802</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2164182891618987</v>
+        <v>0.09636531437925382</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.3730342784195229</v>
+        <v>0.06563027308285736</v>
       </c>
       <c r="I66" t="n">
-        <v>4.025114972798087</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>8.10168128918156</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.726759906046242</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6.43351683174328</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>4761396535.054524</v>
+        <v>7031754548.170031</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2525099518908757</v>
+        <v>0.1434158634365937</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4921706800166085</v>
+        <v>0.1830959579845487</v>
       </c>
       <c r="I67" t="n">
-        <v>3.930910154285791</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.03653912552118</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.5368175302357163</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-13.77288973023551</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>6160069686.479052</v>
+        <v>5665681200.123544</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1896484941662636</v>
+        <v>0.2371730816712205</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.2846687999094107</v>
+        <v>0.4171688025115289</v>
       </c>
       <c r="I68" t="n">
-        <v>3.819577186953078</v>
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3100748008714284</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.694798143801304</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-0.6282462778775632</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-15.25972370135257</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>7221965861.7132</v>
+        <v>4416900694.072958</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1973075181031073</v>
+        <v>0.2787278649148784</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.3099507759279027</v>
+        <v>0.5209138421009473</v>
       </c>
       <c r="I69" t="n">
-        <v>4.65885647915353</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>7.622298995164379</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7295446868911204</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.96859474265803</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>8316553373.764423</v>
+        <v>3998279803.718031</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1596852290023694</v>
+        <v>0.2640170828010526</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1857618690059573</v>
+        <v>0.4841871273003572</v>
       </c>
       <c r="I70" t="n">
-        <v>0.8852662199394163</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>7.607052571371827</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.6899473102964219</v>
+      </c>
+      <c r="N70" t="n">
+        <v>6.191893634556611</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>6452095504.402292</v>
+        <v>3850267084.894372</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1692916090988933</v>
+        <v>0.3898198324704469</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.217471950241834</v>
+        <v>0.7982643580340998</v>
       </c>
       <c r="I71" t="n">
-        <v>3.571219029057026</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>8.419264337399902</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.7820973343879879</v>
+      </c>
+      <c r="N71" t="n">
+        <v>7.222682350359856</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>6883723632.556092</v>
+        <v>4588143284.85639</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1777025335843961</v>
+        <v>0.3037210029162412</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2452359046163467</v>
+        <v>0.5833113301641514</v>
       </c>
       <c r="I72" t="n">
-        <v>0.6409317382260805</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>7.859907963492226</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7621847343660185</v>
+      </c>
+      <c r="N72" t="n">
+        <v>7.383786723828145</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>8090819299.194016</v>
+        <v>4116982537.58146</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1647879480058115</v>
+        <v>0.3632931828947322</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2026056366371748</v>
+        <v>0.7320383283067721</v>
       </c>
       <c r="I73" t="n">
-        <v>4.359113874796225</v>
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.3511960648522946</v>
+      </c>
+      <c r="L73" t="n">
+        <v>7.892353417881498</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.7811531860291238</v>
+      </c>
+      <c r="N73" t="n">
+        <v>7.730710302700977</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>10603948877.22806</v>
+        <v>9088037168.056538</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1119001688652219</v>
+        <v>0.111830893866969</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.02802626791741567</v>
+        <v>0.1042414035228455</v>
       </c>
       <c r="I74" t="n">
-        <v>3.879525707824539</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.523125265479355</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.5586562555934808</v>
+      </c>
+      <c r="N74" t="n">
+        <v>6.649999846390259</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>6141965849.781303</v>
+        <v>10620220306.56494</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2422373481697194</v>
+        <v>0.09767014337346666</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.4582614347828388</v>
+        <v>0.06888788929681493</v>
       </c>
       <c r="I75" t="n">
-        <v>4.864394264998539</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>7.713851032940885</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.6854927090568368</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.996003148195851</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>8889005562.826159</v>
+        <v>13423633903.07243</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1308368131598102</v>
+        <v>0.1176650213649288</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.09053498846383499</v>
+        <v>0.1188067974679079</v>
       </c>
       <c r="I76" t="n">
-        <v>0.862756071502512</v>
+        <v>4</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2682712697518383</v>
+      </c>
+      <c r="L76" t="n">
+        <v>4.03884994626644</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.6731518382639397</v>
+      </c>
+      <c r="N76" t="n">
+        <v>9.424186819012354</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>6941068071.521602</v>
+        <v>13199658428.09606</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1962353323674303</v>
+        <v>0.09108569108431255</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.3064115554893351</v>
+        <v>0.05244924589426066</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9856448944168861</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>7.678596533530014</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7233849575937652</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.789102618345291</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>11011670573.92926</v>
+        <v>11910842110.09885</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1137037665260657</v>
+        <v>0.1007217297409078</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.03397983500174213</v>
+        <v>0.07650643339183261</v>
       </c>
       <c r="I78" t="n">
-        <v>0.7195631354450048</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>7.604444605926099</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7228188815245579</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.851933024565059</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>7089508216.406732</v>
+        <v>10675904946.79494</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1570265124206653</v>
+        <v>0.1307743818400275</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1769856059451693</v>
+        <v>0.1515354273709081</v>
       </c>
       <c r="I79" t="n">
-        <v>3.639731624338695</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>7.906330678965559</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7626849999102813</v>
+      </c>
+      <c r="N79" t="n">
+        <v>7.347369319240067</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>6846772704.887417</v>
+        <v>7018889749.731878</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1767487007617699</v>
+        <v>0.2097336234774501</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.2420873600046395</v>
+        <v>0.3486638686767612</v>
       </c>
       <c r="I80" t="n">
-        <v>3.956602377516417</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>8.06311323964615</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.7768712066426209</v>
+      </c>
+      <c r="N80" t="n">
+        <v>7.474310893206269</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>9940597540.213156</v>
+        <v>5820747717.560141</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1117258148222129</v>
+        <v>0.1741535588188849</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.02745073573858594</v>
+        <v>0.2598352206014454</v>
       </c>
       <c r="I81" t="n">
-        <v>3.631167549928487</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.056869223668439</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-0.5345375663416029</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-13.7476205505005</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>6720262866.456036</v>
+        <v>13725349525.41693</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1707214200990073</v>
+        <v>0.09465824076786371</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2221916701061324</v>
+        <v>0.06136841907781337</v>
       </c>
       <c r="I82" t="n">
-        <v>0.7094417774841894</v>
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.9701979069267319</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2941358521968019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.567880345381126</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.527988708576373</v>
+      </c>
+      <c r="N82" t="n">
+        <v>7.991893826146336</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>8751352405.428221</v>
+        <v>12093989786.85235</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1307996041034744</v>
+        <v>0.1230209009782227</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.09041216361334363</v>
+        <v>0.1321782050206627</v>
       </c>
       <c r="I83" t="n">
-        <v>3.7425005172612</v>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4348619127317448</v>
+      </c>
+      <c r="L83" t="n">
+        <v>7.976019265760948</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.7797319510664177</v>
+      </c>
+      <c r="N83" t="n">
+        <v>7.618619755567405</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>4933858746.950454</v>
+        <v>8844645090.287655</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2792538681516972</v>
+        <v>0.179174057729032</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.5804507343841225</v>
+        <v>0.2723693217935467</v>
       </c>
       <c r="I84" t="n">
-        <v>4.504703139769774</v>
+        <v>5</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9711621657528782</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3633518793872589</v>
+      </c>
+      <c r="L84" t="n">
+        <v>3.735859973466394</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.901322963335549</v>
+      </c>
+      <c r="N84" t="n">
+        <v>14.29059929324459</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>3863139195.989162</v>
+        <v>13850414465.79148</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3274967081987458</v>
+        <v>0.09077758670004905</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.739697439341682</v>
+        <v>0.05168003717632159</v>
       </c>
       <c r="I85" t="n">
-        <v>4.136447940130799</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>7.631353344541053</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7350410152711895</v>
+      </c>
+      <c r="N85" t="n">
+        <v>7.069466960882736</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>10891550499.64538</v>
+        <v>10395969178.94784</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1236156835561509</v>
+        <v>0.1484056641033776</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.06669847522512914</v>
+        <v>0.1955534184093436</v>
       </c>
       <c r="I86" t="n">
-        <v>4.40193424684727</v>
+        <v>4</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.969386691325854</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.276331801865328</v>
+      </c>
+      <c r="L86" t="n">
+        <v>4.04691047837993</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.9153247002874537</v>
+      </c>
+      <c r="N86" t="n">
+        <v>14.25958352736914</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>9842137829.776443</v>
+        <v>8605798675.905046</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1104482449647519</v>
+        <v>0.1807987519341276</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0.02323355470290577</v>
+        <v>0.2764255086262397</v>
       </c>
       <c r="I87" t="n">
-        <v>3.554090880236608</v>
+        <v>5</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.288043427156024</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3.660551521235159</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.6101803241695761</v>
+      </c>
+      <c r="N87" t="n">
+        <v>8.543054962156363</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>7968536503.92784</v>
+        <v>4913755064.282163</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1475937406348425</v>
+        <v>0.2356182522030401</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1458485952707571</v>
+        <v>0.4132870389180251</v>
       </c>
       <c r="I88" t="n">
-        <v>3.845269410183704</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>7.789174981536362</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7136175043095944</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.483175104655524</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>6852393140.457255</v>
+        <v>5112673447.103781</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1945699090334201</v>
+        <v>0.2961283241857843</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.300914093523126</v>
+        <v>0.5643555639684223</v>
       </c>
       <c r="I89" t="n">
-        <v>0.8857233867087584</v>
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.9647208107123033</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.2181397660913041</v>
+      </c>
+      <c r="L89" t="n">
+        <v>5.550543268413048</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.9538436090970703</v>
+      </c>
+      <c r="N89" t="n">
+        <v>13.52632891352836</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>7459895194.976834</v>
+        <v>10605005254.89975</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1601150966308863</v>
+        <v>0.1064551183959477</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.187180836117812</v>
+        <v>0.09082032427440426</v>
       </c>
       <c r="I90" t="n">
-        <v>3.905217931055165</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>8.056818198398009</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7071272628545705</v>
+      </c>
+      <c r="N90" t="n">
+        <v>6.085727058693401</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>9365286114.822433</v>
+        <v>6051241377.690875</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1345315641778327</v>
+        <v>0.1965221655814685</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1027311387046761</v>
+        <v>0.3156803439061987</v>
       </c>
       <c r="I91" t="n">
-        <v>4.119319791310383</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>7.578945079885571</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7205441677439914</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.831938274994258</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>8776072757.192673</v>
+        <v>8135504700.704261</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1638597525096189</v>
+        <v>0.1220267022787242</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.1995417192935654</v>
+        <v>0.1296961036742439</v>
       </c>
       <c r="I92" t="n">
-        <v>4.701676851204573</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.207528868782808</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-0.4391459595337104</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-11.99044805945702</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>8835267734.65188</v>
+        <v>8673966157.706566</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1426019706294325</v>
+        <v>0.1195852532902043</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.129371063589532</v>
+        <v>0.123600819276191</v>
       </c>
       <c r="I93" t="n">
-        <v>0.7719173719621171</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>7.962527245136369</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.6854927090568368</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.747326936000367</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>7666458474.76482</v>
+        <v>14089071898.28905</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1551176549008153</v>
+        <v>0.09518921400087853</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1706845824156028</v>
+        <v>0.06269403877259186</v>
       </c>
       <c r="I94" t="n">
-        <v>3.888089782234748</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>8.022330765071883</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7520143688983603</v>
+      </c>
+      <c r="N94" t="n">
+        <v>7.017956612895322</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>7727735868.148129</v>
+        <v>13272583853.96756</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1976134272774976</v>
+        <v>0.09946613067397289</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.3109605636599357</v>
+        <v>0.07337172386528301</v>
       </c>
       <c r="I95" t="n">
-        <v>4.992855381151669</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>8.008913286915009</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7478548732203366</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.948184177491724</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>10801242535.62205</v>
+        <v>10636926277.26157</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.14429238533067</v>
+        <v>0.1423350487289242</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.1349510205514637</v>
+        <v>0.1803976124299942</v>
       </c>
       <c r="I96" t="n">
-        <v>5.095624274074173</v>
+        <v>2</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.9647607022098765</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.4573287663288926</v>
+      </c>
+      <c r="L96" t="n">
+        <v>5.789732268650637</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.9538572882078147</v>
+      </c>
+      <c r="N96" t="n">
+        <v>13.28741349550566</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>9705520479.878975</v>
+        <v>6328580722.17373</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1616620781186137</v>
+        <v>0.2400611237645985</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.1922873286939266</v>
+        <v>0.4243790444602493</v>
       </c>
       <c r="I97" t="n">
-        <v>5.129880571715008</v>
+        <v>7</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.975113709298054</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3829915543436437</v>
+      </c>
+      <c r="L97" t="n">
+        <v>3.233281119160985</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.8289174221270462</v>
+      </c>
+      <c r="N97" t="n">
+        <v>13.34506732337994</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>10078209428.25325</v>
+        <v>6844841978.918097</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1060417654155882</v>
+        <v>0.1618740028495343</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.008688031512669734</v>
+        <v>0.229178268002007</v>
       </c>
       <c r="I98" t="n">
-        <v>0.5072980502377386</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>7.66820292266967</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.702318297237712</v>
+      </c>
+      <c r="N98" t="n">
+        <v>6.37816302208457</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>7731125367.46343</v>
+        <v>11864496432.13128</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1805862411539278</v>
+        <v>0.09206337885878461</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2547548493563589</v>
+        <v>0.05489012631647234</v>
       </c>
       <c r="I99" t="n">
-        <v>0.500925782128717</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>7.735309065633377</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.6986604989109502</v>
+      </c>
+      <c r="N99" t="n">
+        <v>6.237900912585626</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>5453666175.857225</v>
+        <v>8294075894.837028</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2137330214966417</v>
+        <v>0.1585389133970346</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.3641703718335046</v>
+        <v>0.2208519344183362</v>
       </c>
       <c r="I100" t="n">
-        <v>3.811013112542869</v>
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2413480853146142</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.091637650131956</v>
+      </c>
+      <c r="M100" t="n">
+        <v>-0.3187150453517435</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-9.465938557166826</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>10159830783.25421</v>
+        <v>10943934552.25965</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1673240574835138</v>
+        <v>0.1445651518149232</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.2109771810433884</v>
+        <v>0.1859652538634448</v>
       </c>
       <c r="I101" t="n">
-        <v>5.558084292225443</v>
+        <v>7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.9870251314971659</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.3947704249796176</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3.245059989796959</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.8532604252758954</v>
+      </c>
+      <c r="N101" t="n">
+        <v>13.82014851572095</v>
       </c>
     </row>
   </sheetData>
